--- a/Packages/cn.etetet.achievement/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.achievement/Luban/Config/Base/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.achievement/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF27D9-023F-C343-8BC8-B4932F178899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAEE26A-DE75-7845-92EF-22E264610DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -90,45 +90,17 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>ET.QuestObjectiveType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillMonster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collectltem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterMap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,9 +164,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C634E50F-497D-B641-9B34-9BA56F9E9CD8}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -512,13 +481,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -576,52 +545,11 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>